--- a/data_qiime/qiime_aligned_sequences.fasta/pure_core_quality.xlsx
+++ b/data_qiime/qiime_aligned_sequences.fasta/pure_core_quality.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX46"/>
+  <dimension ref="A1:BX47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5492,62 +5492,62 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Geothrix</t>
+          <t>Flavisolibacter</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0215424386040499</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03682789098944267</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004407519227802631</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.007362414872078041</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00242512428761974</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08634035965225675</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.407009465336403</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01290922234844573</v>
+        <v>0.02581844469689146</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>25.16871774513696</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.5711406013774567</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.072837486769941</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>12.09019397078223</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.8470089994706195</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -5556,43 +5556,43 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8234614273331408</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.629021567327793</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.004860149206580642</v>
+        <v>0.8894073048042576</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.2213661453541858</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.001622428450905315</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.1369487811558477</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.03838034926117827</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.03586478974267013</v>
+        <v>0.03138169102483637</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>0.009877518767285657</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
@@ -5601,97 +5601,97 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.02894565453361314</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>0.01203043700562423</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>0.004892687063735403</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.2184621974726922</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.06776297479459348</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>11.92182166035188</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.3779924401511969</v>
+        <v>0.06299874002519951</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>13.22</v>
+        <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.001347581764523563</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>18.27980168139685</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.02585418241120083</v>
+        <v>0.01193269957440038</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.02809778027535825</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AZ22" t="n">
         <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.189152813648103</v>
+        <v>0</v>
       </c>
       <c r="BB22" t="n">
         <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.132406487917908</v>
+        <v>0</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.001908396946564886</v>
+        <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>0.001744652639659444</v>
+        <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.09331808857652082</v>
+        <v>0</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.06168080185042405</v>
+        <v>0.2467232074016962</v>
       </c>
       <c r="BH22" t="n">
-        <v>0.1536983669548511</v>
+        <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.3293276810426374</v>
+        <v>0</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.03380903234990569</v>
+        <v>0.008897113776290971</v>
       </c>
       <c r="BK22" t="n">
-        <v>0.09297136481963555</v>
+        <v>0</v>
       </c>
       <c r="BL22" t="n">
-        <v>1.892716964675098</v>
+        <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>1.06333795654184</v>
+        <v>0</v>
       </c>
       <c r="BN22" t="n">
         <v>0</v>
       </c>
       <c r="BO22" t="n">
-        <v>0.1088731627653783</v>
+        <v>0</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
@@ -5713,51 +5713,45 @@
           <t>core</t>
         </is>
       </c>
-      <c r="BV22" t="n">
-        <v>3765</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>1236</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0.3282868525896414</v>
-      </c>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Herbaspirillum</t>
+          <t>Geothrix</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.0215424386040499</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.03682789098944267</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.004407519227802631</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.007362414872078041</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.00242512428761974</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.08634035965225675</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -5766,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.01290922234844573</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -5790,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>0.8234614273331408</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -5799,28 +5793,28 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>0.004860149206580642</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01986491855383393</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>0.2213661453541858</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4007398273736128</v>
+        <v>0.001622428450905315</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>0.1369487811558477</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>0.03838034926117827</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>0.03586478974267013</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -5835,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.003618206816701643</v>
+        <v>0.02894565453361314</v>
       </c>
       <c r="AL23" t="n">
         <v>0</v>
@@ -5844,88 +5838,88 @@
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>1.981152281002356</v>
+        <v>0.2184621974726922</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.729165910383466</v>
+        <v>0.06776297479459348</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.01500543947180853</v>
+        <v>11.92182166035188</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>0.3779924401511969</v>
       </c>
       <c r="AS23" t="n">
-        <v>10.76074103271581</v>
+        <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>13.22</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.811149891519668</v>
+        <v>0.001347581764523563</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>18.27980168139685</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.001988783262400064</v>
+        <v>0.02585418241120083</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.917111548187693</v>
+        <v>0.02809778027535825</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AZ23" t="n">
         <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>0</v>
+        <v>0.189152813648103</v>
       </c>
       <c r="BB23" t="n">
         <v>0</v>
       </c>
       <c r="BC23" t="n">
-        <v>0</v>
+        <v>0.132406487917908</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.005725190839694656</v>
+        <v>0.001908396946564886</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.006978610558637775</v>
+        <v>0.001744652639659444</v>
       </c>
       <c r="BF23" t="n">
-        <v>0</v>
+        <v>0.09331808857652082</v>
       </c>
       <c r="BG23" t="n">
-        <v>0</v>
+        <v>0.06168080185042405</v>
       </c>
       <c r="BH23" t="n">
-        <v>0</v>
+        <v>0.1536983669548511</v>
       </c>
       <c r="BI23" t="n">
-        <v>0</v>
+        <v>0.3293276810426374</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0</v>
+        <v>0.03380903234990569</v>
       </c>
       <c r="BK23" t="n">
-        <v>0</v>
+        <v>0.09297136481963555</v>
       </c>
       <c r="BL23" t="n">
-        <v>0</v>
+        <v>1.892716964675098</v>
       </c>
       <c r="BM23" t="n">
-        <v>0</v>
+        <v>1.06333795654184</v>
       </c>
       <c r="BN23" t="n">
         <v>0</v>
       </c>
       <c r="BO23" t="n">
-        <v>0</v>
+        <v>0.1088731627653783</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
@@ -5951,20 +5945,20 @@
         <v>3765</v>
       </c>
       <c r="BW23" t="n">
-        <v>538</v>
+        <v>1236</v>
       </c>
       <c r="BX23" t="n">
-        <v>0.1428950863213811</v>
+        <v>0.3282868525896414</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hydrogenophaga</t>
+          <t>Herbaspirillum</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -5976,49 +5970,49 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.002203759613901316</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005521811154058531</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.007275372862859222</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.008931761343336906</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1279099513942185</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2168749354538883</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03969829297340214</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01679825298168991</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.08659674781102665</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1074901060243318</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03775009437523594</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -6027,88 +6021,88 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.001581965592248368</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.155509101106409</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.5783577555830964</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>0.01986491855383393</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9573367065317387</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>18.26159246259006</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>0.4007398273736128</v>
       </c>
       <c r="AD24" t="n">
-        <v>4.045858277575616</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01919017463058914</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.05379718461400521</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.9383642828921376</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>11.99891657638137</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.07236413633403285</v>
+        <v>0.003618206816701643</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.696291617793016</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.060082197142671</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1.981152281002356</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.001210053121332026</v>
+        <v>1.729165910383466</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>0.01500543947180853</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.08399832003359933</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>10.76074103271581</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>0</v>
+        <v>1.811149891519668</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.02585418241120083</v>
+        <v>0.001988783262400064</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.02809778027535825</v>
+        <v>4.917111548187693</v>
       </c>
       <c r="AY24" t="n">
         <v>0</v>
@@ -6120,58 +6114,58 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.001194476739556292</v>
+        <v>0</v>
       </c>
       <c r="BC24" t="n">
         <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>0.005725190839694656</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>0.006978610558637775</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.9020748562397015</v>
+        <v>0</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.06168080185042405</v>
+        <v>0</v>
       </c>
       <c r="BH24" t="n">
-        <v>1.364073006724304</v>
+        <v>0</v>
       </c>
       <c r="BI24" t="n">
-        <v>1.53102336825141</v>
+        <v>0</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.01245595928680736</v>
+        <v>0</v>
       </c>
       <c r="BK24" t="n">
-        <v>6.87988099665303</v>
+        <v>0</v>
       </c>
       <c r="BL24" t="n">
-        <v>1.072830353249019</v>
+        <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>1.132686084142395</v>
+        <v>0</v>
       </c>
       <c r="BN24" t="n">
         <v>0</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.1088731627653783</v>
+        <v>0</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>0.06351377760406489</v>
+        <v>0</v>
       </c>
       <c r="BR24" t="n">
-        <v>0.005292965648652941</v>
+        <v>0</v>
       </c>
       <c r="BS24" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BT24" t="n">
         <v>0</v>
@@ -6185,74 +6179,74 @@
         <v>3765</v>
       </c>
       <c r="BW24" t="n">
-        <v>1681</v>
+        <v>538</v>
       </c>
       <c r="BX24" t="n">
-        <v>0.4464807436918991</v>
+        <v>0.1428950863213811</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Methylocystis</t>
+          <t>Hydrogenophaga</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>449</v>
+        <v>371</v>
       </c>
       <c r="C25" t="n">
-        <v>2.477380439465747</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.897173211914248</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.504296587282102</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.668246027723296</v>
+        <v>0.002203759613901316</v>
       </c>
       <c r="G25" t="n">
-        <v>2.904472667034788</v>
+        <v>0.005521811154058531</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.238389717473021</v>
+        <v>0.007275372862859222</v>
       </c>
       <c r="J25" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>30.89198523282124</v>
+        <v>0.008931761343336906</v>
       </c>
       <c r="L25" t="n">
-        <v>11.73</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.1279099513942185</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.2168749354538883</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.03969829297340214</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.01679825298168991</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.08659674781102665</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.1074901060243318</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.849754624386561</v>
+        <v>0.03775009437523594</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -6261,61 +6255,61 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>0.001581965592248368</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.155509101106409</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.5783577555830964</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02012419503219871</v>
+        <v>0.9573367065317387</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>18.26159246259006</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.00324485690181063</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02347693391243104</v>
+        <v>4.045858277575616</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.01919017463058914</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.05379718461400521</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.009877518767285657</v>
+        <v>0.9383642828921376</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>11.99891657638137</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AK25" t="n">
-        <v>12.65648744482234</v>
+        <v>0.07236413633403285</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.009022827754218171</v>
+        <v>1.696291617793016</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.001630895687911801</v>
+        <v>1.060082197142671</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>0.001210053121332026</v>
       </c>
       <c r="AP25" t="n">
         <v>0</v>
@@ -6324,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>0.08399832003359933</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
@@ -6339,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>0.02585418241120083</v>
       </c>
       <c r="AX25" t="n">
-        <v>0</v>
+        <v>0.02809778027535825</v>
       </c>
       <c r="AY25" t="n">
         <v>0</v>
@@ -6354,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="BB25" t="n">
-        <v>0</v>
+        <v>0.001194476739556292</v>
       </c>
       <c r="BC25" t="n">
         <v>0</v>
@@ -6366,46 +6360,46 @@
         <v>0</v>
       </c>
       <c r="BF25" t="n">
-        <v>0</v>
+        <v>0.9020748562397015</v>
       </c>
       <c r="BG25" t="n">
-        <v>0</v>
+        <v>0.06168080185042405</v>
       </c>
       <c r="BH25" t="n">
-        <v>0.01921229586935639</v>
+        <v>1.364073006724304</v>
       </c>
       <c r="BI25" t="n">
-        <v>0.01751742984269348</v>
+        <v>1.53102336825141</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0</v>
+        <v>0.01245595928680736</v>
       </c>
       <c r="BK25" t="n">
-        <v>0.01859427296392711</v>
+        <v>6.87988099665303</v>
       </c>
       <c r="BL25" t="n">
-        <v>0.2224160488443088</v>
+        <v>1.072830353249019</v>
       </c>
       <c r="BM25" t="n">
-        <v>0.02311604253351826</v>
+        <v>1.132686084142395</v>
       </c>
       <c r="BN25" t="n">
         <v>0</v>
       </c>
       <c r="BO25" t="n">
-        <v>0</v>
+        <v>0.1088731627653783</v>
       </c>
       <c r="BP25" t="n">
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>0</v>
+        <v>0.06351377760406489</v>
       </c>
       <c r="BR25" t="n">
-        <v>0</v>
+        <v>0.005292965648652941</v>
       </c>
       <c r="BS25" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BT25" t="n">
         <v>0</v>
@@ -6419,74 +6413,74 @@
         <v>3765</v>
       </c>
       <c r="BW25" t="n">
-        <v>515</v>
+        <v>1681</v>
       </c>
       <c r="BX25" t="n">
-        <v>0.1367861885790173</v>
+        <v>0.4464807436918991</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nitrospira</t>
+          <t>Methylocystis</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0215424386040499</v>
+        <v>2.477380439465747</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.897173211914248</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01227596366314756</v>
+        <v>2.504296587282102</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004407519227802631</v>
+        <v>1.668246027723296</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01472482974415608</v>
+        <v>2.904472667034788</v>
       </c>
       <c r="H26" t="n">
-        <v>25.33</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004850248575239481</v>
+        <v>2.238389717473021</v>
       </c>
       <c r="J26" t="n">
-        <v>6.94</v>
+        <v>1.28</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1042038823389306</v>
+        <v>30.89198523282124</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>11.73</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.002581844469689146</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1587931718936086</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.004810930433945925</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01221478477549226</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01258336479174531</v>
+        <v>1.849754624386561</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -6498,25 +6492,25 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0101973181053383</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.007290223809870963</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.004966229638458482</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.05749770009199632</v>
+        <v>0.02012419503219871</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>0.00324485690181063</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0704308017372931</v>
+        <v>0.02347693391243104</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -6528,22 +6522,22 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.3259581193204267</v>
+        <v>0.009877518767285657</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.5687973997833152</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>12.65648744482234</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.5052783542362176</v>
+        <v>0.009022827754218171</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.3718442168438907</v>
+        <v>0.001630895687911801</v>
       </c>
       <c r="AN26" t="n">
         <v>0</v>
@@ -6573,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.003977566524800128</v>
+        <v>0</v>
       </c>
       <c r="AX26" t="n">
         <v>0</v>
@@ -6588,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="BB26" t="n">
-        <v>0.0003981589131854306</v>
+        <v>0</v>
       </c>
       <c r="BC26" t="n">
         <v>0</v>
@@ -6600,28 +6594,28 @@
         <v>0</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.002522110502068131</v>
+        <v>0</v>
       </c>
       <c r="BG26" t="n">
-        <v>0.03084040092521203</v>
+        <v>0</v>
       </c>
       <c r="BH26" t="n">
-        <v>0.07684918347742556</v>
+        <v>0.01921229586935639</v>
       </c>
       <c r="BI26" t="n">
-        <v>0.1191185229303157</v>
+        <v>0.01751742984269348</v>
       </c>
       <c r="BJ26" t="n">
         <v>0</v>
       </c>
       <c r="BK26" t="n">
-        <v>0.05578281889178133</v>
+        <v>0.01859427296392711</v>
       </c>
       <c r="BL26" t="n">
-        <v>0.07849978194505015</v>
+        <v>0.2224160488443088</v>
       </c>
       <c r="BM26" t="n">
-        <v>0.09246417013407304</v>
+        <v>0.02311604253351826</v>
       </c>
       <c r="BN26" t="n">
         <v>0</v>
@@ -6633,13 +6627,13 @@
         <v>0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>0.004885675200312683</v>
+        <v>0</v>
       </c>
       <c r="BR26" t="n">
         <v>0</v>
       </c>
       <c r="BS26" t="n">
-        <v>2.82</v>
+        <v>1.54</v>
       </c>
       <c r="BT26" t="n">
         <v>0</v>
@@ -6653,47 +6647,47 @@
         <v>3765</v>
       </c>
       <c r="BW26" t="n">
-        <v>1433</v>
+        <v>515</v>
       </c>
       <c r="BX26" t="n">
-        <v>0.3806108897742364</v>
+        <v>0.1367861885790173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phreatobacter</t>
+          <t>Nitrospira</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.0215424386040499</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.01227596366314756</v>
       </c>
       <c r="F27" t="n">
         <v>0.004407519227802631</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.01472482974415608</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>25.33</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.004850248575239481</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.94</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.1042038823389306</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -6702,19 +6696,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.002581844469689146</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.1587931718936086</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.004810930433945925</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.01221478477549226</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -6732,25 +6726,25 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>0.0101973181053383</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>0.007290223809870963</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.001379944802208</v>
+        <v>0.05749770009199632</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.00791744741495342</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>11.33935907970419</v>
+        <v>0.0704308017372931</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -6762,22 +6756,22 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.09877518767285659</v>
+        <v>0.3259581193204267</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.2437703141928494</v>
+        <v>0.5687973997833152</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.1302554454012591</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.2556467863695149</v>
+        <v>0.5052783542362176</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.1141626981538261</v>
+        <v>0.3718442168438907</v>
       </c>
       <c r="AN27" t="n">
         <v>0</v>
@@ -6807,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AW27" t="n">
-        <v>0</v>
+        <v>0.003977566524800128</v>
       </c>
       <c r="AX27" t="n">
         <v>0</v>
@@ -6819,43 +6813,43 @@
         <v>0</v>
       </c>
       <c r="BA27" t="n">
-        <v>0.06547597395511258</v>
+        <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>0</v>
+        <v>0.0003981589131854306</v>
       </c>
       <c r="BC27" t="n">
         <v>0</v>
       </c>
       <c r="BD27" t="n">
-        <v>23.91603053435115</v>
+        <v>0</v>
       </c>
       <c r="BE27" t="n">
-        <v>15.26222129174081</v>
+        <v>0</v>
       </c>
       <c r="BF27" t="n">
-        <v>0</v>
+        <v>0.002522110502068131</v>
       </c>
       <c r="BG27" t="n">
-        <v>0</v>
+        <v>0.03084040092521203</v>
       </c>
       <c r="BH27" t="n">
-        <v>18.96253602305475</v>
+        <v>0.07684918347742556</v>
       </c>
       <c r="BI27" t="n">
-        <v>26.07994954980205</v>
+        <v>0.1191185229303157</v>
       </c>
       <c r="BJ27" t="n">
         <v>0</v>
       </c>
       <c r="BK27" t="n">
-        <v>2.324284120490889</v>
+        <v>0.05578281889178133</v>
       </c>
       <c r="BL27" t="n">
-        <v>3.279546445704318</v>
+        <v>0.07849978194505015</v>
       </c>
       <c r="BM27" t="n">
-        <v>3.005085529357374</v>
+        <v>0.09246417013407304</v>
       </c>
       <c r="BN27" t="n">
         <v>0</v>
@@ -6867,13 +6861,13 @@
         <v>0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>0</v>
+        <v>0.004885675200312683</v>
       </c>
       <c r="BR27" t="n">
         <v>0</v>
       </c>
       <c r="BS27" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="BT27" t="n">
         <v>0</v>
@@ -6887,47 +6881,47 @@
         <v>3765</v>
       </c>
       <c r="BW27" t="n">
-        <v>1160</v>
+        <v>1433</v>
       </c>
       <c r="BX27" t="n">
-        <v>0.3081009296148738</v>
+        <v>0.3806108897742364</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Propionivibrio</t>
+          <t>Phreatobacter</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0430848772080999</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03794346423828496</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06137981831573779</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01763007691121053</v>
+        <v>0.004407519227802631</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04785569666850727</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05335273432763429</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.08038585209003216</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -6936,10 +6930,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>4.859031291954972</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.09924573243350536</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -6948,112 +6942,112 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.007328870865295353</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1132502831257078</v>
+        <v>0.01258336479174531</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.08668015024559377</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2198932173225233</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.007647988579003722</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.007290223809870963</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.074096146205801</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.2242410303587856</v>
+        <v>3.001379944802208</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.1952970362355177</v>
+        <v>0.00791744741495342</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06260515709981609</v>
+        <v>11.33935907970419</v>
       </c>
       <c r="AE28" t="n">
-        <v>3.895605450009595</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.563256522908635</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>0.09877518767285659</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>0.2437703141928494</v>
       </c>
       <c r="AJ28" t="n">
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.003618206816701643</v>
+        <v>0.1302554454012591</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>0.2556467863695149</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.006523582751647205</v>
+        <v>0.1141626981538261</v>
       </c>
       <c r="AN28" t="n">
-        <v>23.93660312700792</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>27.03621688992147</v>
+        <v>0</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.1575571144539896</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>27.82444351112978</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.177769018525818</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.1940073291657685</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>39.06964718984925</v>
+        <v>0</v>
       </c>
       <c r="AX28" t="n">
-        <v>2.613093565608317</v>
+        <v>0</v>
       </c>
       <c r="AY28" t="n">
-        <v>9.98</v>
+        <v>0</v>
       </c>
       <c r="AZ28" t="n">
         <v>0</v>
       </c>
       <c r="BA28" t="n">
-        <v>0</v>
+        <v>0.06547597395511258</v>
       </c>
       <c r="BB28" t="n">
         <v>0</v>
@@ -7062,43 +7056,43 @@
         <v>0</v>
       </c>
       <c r="BD28" t="n">
-        <v>0</v>
+        <v>23.91603053435115</v>
       </c>
       <c r="BE28" t="n">
-        <v>0</v>
+        <v>15.26222129174081</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.0008407035006893769</v>
+        <v>0</v>
       </c>
       <c r="BG28" t="n">
-        <v>4.872783346183501</v>
+        <v>0</v>
       </c>
       <c r="BH28" t="n">
-        <v>0.09606147934678194</v>
+        <v>18.96253602305475</v>
       </c>
       <c r="BI28" t="n">
-        <v>0.1016010930876222</v>
+        <v>26.07994954980205</v>
       </c>
       <c r="BJ28" t="n">
-        <v>2.78835545748959</v>
+        <v>0</v>
       </c>
       <c r="BK28" t="n">
-        <v>0.01859427296392711</v>
+        <v>2.324284120490889</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.1351940689053641</v>
+        <v>3.279546445704318</v>
       </c>
       <c r="BM28" t="n">
-        <v>0.1386962552011096</v>
+        <v>3.005085529357374</v>
       </c>
       <c r="BN28" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="BO28" t="n">
-        <v>4.300489929232445</v>
+        <v>0</v>
       </c>
       <c r="BP28" t="n">
-        <v>8.43</v>
+        <v>0</v>
       </c>
       <c r="BQ28" t="n">
         <v>0</v>
@@ -7110,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="BT28" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="BU28" t="inlineStr">
         <is>
@@ -7121,47 +7115,47 @@
         <v>3765</v>
       </c>
       <c r="BW28" t="n">
-        <v>1395</v>
+        <v>1160</v>
       </c>
       <c r="BX28" t="n">
-        <v>0.3705179282868526</v>
+        <v>0.3081009296148738</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pseudorhodoferax</t>
+          <t>Propionivibrio</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06462731581214989</v>
+        <v>0.0430848772080999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01897173211914248</v>
+        <v>0.03794346423828496</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03682789098944267</v>
+        <v>0.06137981831573779</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02203759613901316</v>
+        <v>0.01763007691121053</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04969630038652678</v>
+        <v>0.04785569666850727</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03395174002667636</v>
+        <v>0.05335273432763429</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1488626890556151</v>
+        <v>0.08038585209003216</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -7170,10 +7164,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4.859031291954972</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.09924573243350536</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -7182,106 +7176,106 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.007328870865295353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1510003775009437</v>
+        <v>0.1132502831257078</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.08668015024559377</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0150286731263595</v>
+        <v>0.2198932173225233</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>0.007647988579003722</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>0.007290223809870963</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02483114819229241</v>
+        <v>3.074096146205801</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.113040478380865</v>
+        <v>0.2242410303587856</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1741838431289752</v>
+        <v>0.1952970362355177</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>5.102320303635012</v>
+        <v>0.06260515709981609</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>3.895605450009595</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>6.563256522908635</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.20505728960885</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.491874322860238</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.1374918590346624</v>
+        <v>0.003618206816701643</v>
       </c>
       <c r="AL29" t="n">
-        <v>2.162471051760955</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>7.688042272816231</v>
+        <v>0.006523582751647205</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>23.93660312700792</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>27.03621688992147</v>
       </c>
       <c r="AP29" t="n">
         <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.01500543947180853</v>
+        <v>0.1575571144539896</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>27.82444351112978</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>2.177769018525818</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>0.1940073291657685</v>
       </c>
       <c r="AW29" t="n">
-        <v>0</v>
+        <v>39.06964718984925</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>2.613093565608317</v>
       </c>
       <c r="AY29" t="n">
-        <v>0</v>
+        <v>9.98</v>
       </c>
       <c r="AZ29" t="n">
         <v>0</v>
@@ -7290,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.001592635652741722</v>
+        <v>0</v>
       </c>
       <c r="BC29" t="n">
         <v>0</v>
@@ -7302,49 +7296,49 @@
         <v>0</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.04455728553653697</v>
+        <v>0.0008407035006893769</v>
       </c>
       <c r="BG29" t="n">
-        <v>0</v>
+        <v>4.872783346183501</v>
       </c>
       <c r="BH29" t="n">
-        <v>3.227665706051873</v>
+        <v>0.09606147934678194</v>
       </c>
       <c r="BI29" t="n">
-        <v>3.128612969905056</v>
+        <v>0.1016010930876222</v>
       </c>
       <c r="BJ29" t="n">
-        <v>0</v>
+        <v>2.78835545748959</v>
       </c>
       <c r="BK29" t="n">
-        <v>1.840833023428784</v>
+        <v>0.01859427296392711</v>
       </c>
       <c r="BL29" t="n">
-        <v>16.35412123855212</v>
+        <v>0.1351940689053641</v>
       </c>
       <c r="BM29" t="n">
-        <v>12.32085067036523</v>
+        <v>0.1386962552011096</v>
       </c>
       <c r="BN29" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BO29" t="n">
-        <v>0</v>
+        <v>4.300489929232445</v>
       </c>
       <c r="BP29" t="n">
-        <v>0.28</v>
+        <v>8.43</v>
       </c>
       <c r="BQ29" t="n">
-        <v>1.651358217705687</v>
+        <v>0</v>
       </c>
       <c r="BR29" t="n">
-        <v>0.005292965648652941</v>
+        <v>0</v>
       </c>
       <c r="BS29" t="n">
         <v>0</v>
       </c>
       <c r="BT29" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="BU29" t="inlineStr">
         <is>
@@ -7355,47 +7349,47 @@
         <v>3765</v>
       </c>
       <c r="BW29" t="n">
-        <v>1379</v>
+        <v>1395</v>
       </c>
       <c r="BX29" t="n">
-        <v>0.3662682602921647</v>
+        <v>0.3705179282868526</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pseudoxanthomonas</t>
+          <t>Pseudorhodoferax</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C30" t="n">
-        <v>3.059026281775097</v>
+        <v>0.06462731581214989</v>
       </c>
       <c r="D30" t="n">
-        <v>3.073420603301081</v>
+        <v>0.01897173211914248</v>
       </c>
       <c r="E30" t="n">
-        <v>3.707341026270562</v>
+        <v>0.03682789098944267</v>
       </c>
       <c r="F30" t="n">
-        <v>2.637900257839875</v>
+        <v>0.02203759613901316</v>
       </c>
       <c r="G30" t="n">
-        <v>4.301490889011596</v>
+        <v>0.04969630038652678</v>
       </c>
       <c r="H30" t="n">
-        <v>7.37</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.568934157875591</v>
+        <v>0.03395174002667636</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>5.394783851375491</v>
+        <v>0.1488626890556151</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -7404,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3769492925746153</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -7422,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>35.79967283251542</v>
+        <v>0.1510003775009437</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -7431,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>0.0150286731263595</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -7440,46 +7434,46 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>0.02483114819229241</v>
       </c>
       <c r="AA30" t="n">
-        <v>7.241835326586936</v>
+        <v>2.113040478380865</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>0.1741838431289752</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.5008412567985288</v>
+        <v>5.102320303635012</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.03838034926117827</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.1569084551241818</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1.20505728960885</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>2.491874322860238</v>
       </c>
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>0.1374918590346624</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>2.162471051760955</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.003261791375823602</v>
+        <v>7.688042272816231</v>
       </c>
       <c r="AN30" t="n">
         <v>0</v>
@@ -7491,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>0.01500543947180853</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.08399832003359933</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
@@ -7506,10 +7500,10 @@
         <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.05173528777753827</v>
+        <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.08551768028320274</v>
+        <v>0</v>
       </c>
       <c r="AX30" t="n">
         <v>0</v>
@@ -7524,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.0007963178263708611</v>
+        <v>0.001592635652741722</v>
       </c>
       <c r="BC30" t="n">
         <v>0</v>
@@ -7536,40 +7530,40 @@
         <v>0</v>
       </c>
       <c r="BF30" t="n">
-        <v>0</v>
+        <v>0.04455728553653697</v>
       </c>
       <c r="BG30" t="n">
-        <v>0.7555898226676947</v>
+        <v>0</v>
       </c>
       <c r="BH30" t="n">
-        <v>0.4803073967339098</v>
+        <v>3.227665706051873</v>
       </c>
       <c r="BI30" t="n">
-        <v>0.6481449041796588</v>
+        <v>3.128612969905056</v>
       </c>
       <c r="BJ30" t="n">
-        <v>0.0302501868393893</v>
+        <v>0</v>
       </c>
       <c r="BK30" t="n">
-        <v>0.5392339159538861</v>
+        <v>1.840833023428784</v>
       </c>
       <c r="BL30" t="n">
-        <v>0.4186655037069342</v>
+        <v>16.35412123855212</v>
       </c>
       <c r="BM30" t="n">
-        <v>0.3929727230698105</v>
+        <v>12.32085067036523</v>
       </c>
       <c r="BN30" t="n">
         <v>0</v>
       </c>
       <c r="BO30" t="n">
-        <v>0.1088731627653783</v>
+        <v>0</v>
       </c>
       <c r="BP30" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="BQ30" t="n">
-        <v>0.004885675200312683</v>
+        <v>1.651358217705687</v>
       </c>
       <c r="BR30" t="n">
         <v>0.005292965648652941</v>
@@ -7589,47 +7583,47 @@
         <v>3765</v>
       </c>
       <c r="BW30" t="n">
-        <v>991</v>
+        <v>1379</v>
       </c>
       <c r="BX30" t="n">
-        <v>0.2632138114209827</v>
+        <v>0.3662682602921647</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ralstonia</t>
+          <t>Pseudoxanthomonas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.059026281775097</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.073420603301081</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.707341026270562</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.637900257839875</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.301490889011596</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.568934157875591</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.394783851375491</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -7638,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01032737787875658</v>
+        <v>0.3769492925746153</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01984914648670107</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -7650,55 +7644,55 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03420139737137832</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>35.79967283251542</v>
       </c>
       <c r="U31" t="n">
-        <v>19.9749814655162</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.04334007512279688</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.06644255487443149</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.007647988579003722</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.002430074603290321</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01489868891537545</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>7.241835326586936</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.6483873061198</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>0.5008412567985288</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>0.03838034926117827</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.008966197435667534</v>
+        <v>0.1569084551241818</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.1449695563931575</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.009877518767285657</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -7707,106 +7701,106 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.01447282726680657</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.004892687063735403</v>
+        <v>0.003261791375823602</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.3448275862068966</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.3363947677303034</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.02250815920771279</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>0.08399832003359933</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.423728813559322</v>
+        <v>0</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.001347581764523563</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>0.05173528777753827</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
+        <v>0.08551768028320274</v>
       </c>
       <c r="AX31" t="n">
-        <v>3.793200337173364</v>
+        <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AZ31" t="n">
         <v>0</v>
       </c>
       <c r="BA31" t="n">
-        <v>1.404095885926303</v>
+        <v>0</v>
       </c>
       <c r="BB31" t="n">
-        <v>0.0003981589131854306</v>
+        <v>0.0007963178263708611</v>
       </c>
       <c r="BC31" t="n">
-        <v>0.6509985655963809</v>
+        <v>0</v>
       </c>
       <c r="BD31" t="n">
-        <v>0.003816793893129771</v>
+        <v>0</v>
       </c>
       <c r="BE31" t="n">
-        <v>0.01395722111727555</v>
+        <v>0</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.001681407001378754</v>
+        <v>0</v>
       </c>
       <c r="BG31" t="n">
-        <v>0</v>
+        <v>0.7555898226676947</v>
       </c>
       <c r="BH31" t="n">
-        <v>0</v>
+        <v>0.4803073967339098</v>
       </c>
       <c r="BI31" t="n">
-        <v>0</v>
+        <v>0.6481449041796588</v>
       </c>
       <c r="BJ31" t="n">
-        <v>0.001779422755258194</v>
+        <v>0.0302501868393893</v>
       </c>
       <c r="BK31" t="n">
-        <v>0.01859427296392711</v>
+        <v>0.5392339159538861</v>
       </c>
       <c r="BL31" t="n">
-        <v>0</v>
+        <v>0.4186655037069342</v>
       </c>
       <c r="BM31" t="n">
-        <v>0</v>
+        <v>0.3929727230698105</v>
       </c>
       <c r="BN31" t="n">
         <v>0</v>
       </c>
       <c r="BO31" t="n">
-        <v>0</v>
+        <v>0.1088731627653783</v>
       </c>
       <c r="BP31" t="n">
         <v>0</v>
       </c>
       <c r="BQ31" t="n">
-        <v>0</v>
+        <v>0.004885675200312683</v>
       </c>
       <c r="BR31" t="n">
-        <v>0</v>
+        <v>0.005292965648652941</v>
       </c>
       <c r="BS31" t="n">
         <v>0</v>
@@ -7823,23 +7817,23 @@
         <v>3765</v>
       </c>
       <c r="BW31" t="n">
-        <v>696</v>
+        <v>991</v>
       </c>
       <c r="BX31" t="n">
-        <v>0.1848605577689243</v>
+        <v>0.2632138114209827</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ruminiclostridium_1</t>
+          <t>Ralstonia</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0215424386040499</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -7848,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002203759613901316</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -7857,13 +7851,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00242512428761974</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02084077646778611</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -7872,10 +7866,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.01032737787875658</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.01984914648670107</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -7884,40 +7878,40 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.03420139737137832</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01258336479174531</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>19.9749814655162</v>
       </c>
       <c r="V32" t="n">
-        <v>11.90407396706154</v>
+        <v>0.04334007512279688</v>
       </c>
       <c r="W32" t="n">
-        <v>0.4176389163535693</v>
+        <v>0.06644255487443149</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>0.007647988579003722</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>0.002430074603290321</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>0.01489868891537545</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.01437442502299908</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.001319574569158903</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.00324485690181063</v>
+        <v>1.6483873061198</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -7926,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>0.008966197435667534</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>0.1449695563931575</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>0.009877518767285657</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
@@ -7941,91 +7935,91 @@
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.4124755771039872</v>
+        <v>0.01447282726680657</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.003007609251406057</v>
+        <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.01141626981538261</v>
+        <v>0.004892687063735403</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>0.3363947677303034</v>
       </c>
       <c r="AP32" t="n">
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>17.92399744907529</v>
+        <v>0.02250815920771279</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="AT32" t="n">
         <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.00539032705809425</v>
+        <v>0.001347581764523563</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.4397499461090753</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>0</v>
+        <v>3.793200337173364</v>
       </c>
       <c r="AY32" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AZ32" t="n">
         <v>0</v>
       </c>
       <c r="BA32" t="n">
-        <v>0.05638208868356917</v>
+        <v>1.404095885926303</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.002388953479112583</v>
+        <v>0.0003981589131854306</v>
       </c>
       <c r="BC32" t="n">
-        <v>0</v>
+        <v>0.6509985655963809</v>
       </c>
       <c r="BD32" t="n">
-        <v>0</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="BE32" t="n">
-        <v>0</v>
+        <v>0.01395722111727555</v>
       </c>
       <c r="BF32" t="n">
-        <v>2.81971954131217</v>
+        <v>0.001681407001378754</v>
       </c>
       <c r="BG32" t="n">
         <v>0</v>
       </c>
       <c r="BH32" t="n">
-        <v>0.01921229586935639</v>
+        <v>0</v>
       </c>
       <c r="BI32" t="n">
-        <v>0.003503485968538696</v>
+        <v>0</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0</v>
+        <v>0.001779422755258194</v>
       </c>
       <c r="BK32" t="n">
         <v>0.01859427296392711</v>
       </c>
       <c r="BL32" t="n">
-        <v>0.008722197993894461</v>
+        <v>0</v>
       </c>
       <c r="BM32" t="n">
-        <v>0.02311604253351826</v>
+        <v>0</v>
       </c>
       <c r="BN32" t="n">
         <v>0</v>
@@ -8053,21 +8047,27 @@
           <t>core</t>
         </is>
       </c>
-      <c r="BV32" t="inlineStr"/>
-      <c r="BW32" t="inlineStr"/>
-      <c r="BX32" t="inlineStr"/>
+      <c r="BV32" t="n">
+        <v>3765</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>696</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>0.1848605577689243</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sediminibacterium</t>
+          <t>Ruminiclostridium_1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.0215424386040499</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -8076,46 +8076,46 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.002203759613901316</v>
       </c>
       <c r="G33" t="n">
-        <v>0.003681207436039021</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.00242512428761974</v>
       </c>
       <c r="J33" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02977253781112302</v>
+        <v>0.02084077646778611</v>
       </c>
       <c r="L33" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>10.71885392683551</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.988020241660642</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>23.89837236998809</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.293465479590123</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.07832194746464</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.08907021058289</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>2.011646373742721</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0.01258336479174531</v>
@@ -8124,142 +8124,142 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.05778676683039585</v>
+        <v>11.90407396706154</v>
       </c>
       <c r="W33" t="n">
-        <v>0.5062289895194779</v>
+        <v>0.4176389163535693</v>
       </c>
       <c r="X33" t="n">
-        <v>2.93172895528476</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.727783042939418</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>35.30989272943981</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.40869365225391</v>
+        <v>0.01437442502299908</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.3312132168588847</v>
+        <v>0.001319574569158903</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>0.00324485690181063</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.05869233478107759</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.631164843600077</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>3.187483188379808</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.02899391127863149</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.08889766890557092</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.1354279523293608</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>0.4124755771039872</v>
       </c>
       <c r="AL33" t="n">
-        <v>3.840717014045535</v>
+        <v>0.003007609251406057</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.1712440472307391</v>
+        <v>0.01141626981538261</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.850503319768687</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.4150482206168851</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>17.92399744907529</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.532969340613188</v>
+        <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.1083957430035475</v>
+        <v>0</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>0</v>
+        <v>0.00539032705809425</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.1422720413882302</v>
+        <v>0.4397499461090753</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.7955133049600254</v>
+        <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.07024445068839562</v>
+        <v>0</v>
       </c>
       <c r="AY33" t="n">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="AZ33" t="n">
         <v>0</v>
       </c>
       <c r="BA33" t="n">
-        <v>0.2273471317885853</v>
+        <v>0.05638208868356917</v>
       </c>
       <c r="BB33" t="n">
-        <v>0.005176065871410597</v>
+        <v>0.002388953479112583</v>
       </c>
       <c r="BC33" t="n">
         <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>0.02480916030534351</v>
+        <v>0</v>
       </c>
       <c r="BE33" t="n">
-        <v>0.02616978959489166</v>
+        <v>0</v>
       </c>
       <c r="BF33" t="n">
-        <v>0.0327874365268857</v>
+        <v>2.81971954131217</v>
       </c>
       <c r="BG33" t="n">
-        <v>19.67617579028527</v>
+        <v>0</v>
       </c>
       <c r="BH33" t="n">
-        <v>0.07684918347742556</v>
+        <v>0.01921229586935639</v>
       </c>
       <c r="BI33" t="n">
-        <v>0.05255228952808044</v>
+        <v>0.003503485968538696</v>
       </c>
       <c r="BJ33" t="n">
-        <v>0.6744012242428556</v>
+        <v>0</v>
       </c>
       <c r="BK33" t="n">
-        <v>1.152844923763481</v>
+        <v>0.01859427296392711</v>
       </c>
       <c r="BL33" t="n">
-        <v>0.1221107719145225</v>
+        <v>0.008722197993894461</v>
       </c>
       <c r="BM33" t="n">
-        <v>0.1618122977346279</v>
+        <v>0.02311604253351826</v>
       </c>
       <c r="BN33" t="n">
         <v>0</v>
       </c>
       <c r="BO33" t="n">
-        <v>1.30647795318454</v>
+        <v>0</v>
       </c>
       <c r="BP33" t="n">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="BS33" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BT33" t="n">
         <v>0</v>
@@ -8281,141 +8281,135 @@
           <t>core</t>
         </is>
       </c>
-      <c r="BV33" t="n">
-        <v>3765</v>
-      </c>
-      <c r="BW33" t="n">
-        <v>820</v>
-      </c>
-      <c r="BX33" t="n">
-        <v>0.2177954847277556</v>
-      </c>
+      <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="inlineStr"/>
+      <c r="BX33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Silanimonas</t>
+          <t>Sediminibacterium</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1077121930202499</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1517738569531398</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1473115639577707</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07933534610044736</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1049144119271121</v>
+        <v>0.003681207436039021</v>
       </c>
       <c r="H34" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.08002910149145144</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1786352268667381</v>
+        <v>0.02977253781112302</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>10.71885392683551</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.988020241660642</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>23.89837236998809</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.293465479590123</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.07832194746464</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>31.08907021058289</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.011646373742721</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2139172014596703</v>
+        <v>0.01258336479174531</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.05778676683039585</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.5062289895194779</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>2.93172895528476</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.727783042939418</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>35.30989272943981</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.4484820607175713</v>
+        <v>1.40869365225391</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>0.3312132168588847</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.244864420706656</v>
+        <v>0.05869233478107759</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.631164843600077</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>3.187483188379808</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>0.02899391127863149</v>
       </c>
       <c r="AH34" t="n">
-        <v>2.755827736072698</v>
+        <v>0.08889766890557092</v>
       </c>
       <c r="AI34" t="n">
-        <v>3.737811484290358</v>
+        <v>0.1354279523293608</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>3.973051821107402</v>
+        <v>3.840717014045535</v>
       </c>
       <c r="AM34" t="n">
-        <v>2.175614847674343</v>
+        <v>0.1712440472307391</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1.850503319768687</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>0.4150482206168851</v>
       </c>
       <c r="AP34" t="n">
         <v>0</v>
@@ -8424,10 +8418,10 @@
         <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>1.532969340613188</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>0.1083957430035475</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -8436,64 +8430,64 @@
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>0.1422720413882302</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
+        <v>0.7955133049600254</v>
       </c>
       <c r="AX34" t="n">
-        <v>0</v>
+        <v>0.07024445068839562</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="AZ34" t="n">
         <v>0</v>
       </c>
       <c r="BA34" t="n">
-        <v>0</v>
+        <v>0.2273471317885853</v>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>0.005176065871410597</v>
       </c>
       <c r="BC34" t="n">
         <v>0</v>
       </c>
       <c r="BD34" t="n">
-        <v>0</v>
+        <v>0.02480916030534351</v>
       </c>
       <c r="BE34" t="n">
-        <v>0</v>
+        <v>0.02616978959489166</v>
       </c>
       <c r="BF34" t="n">
-        <v>0</v>
+        <v>0.0327874365268857</v>
       </c>
       <c r="BG34" t="n">
-        <v>0</v>
+        <v>19.67617579028527</v>
       </c>
       <c r="BH34" t="n">
-        <v>0.7108549471661864</v>
+        <v>0.07684918347742556</v>
       </c>
       <c r="BI34" t="n">
-        <v>0.7357320533931262</v>
+        <v>0.05255228952808044</v>
       </c>
       <c r="BJ34" t="n">
-        <v>0</v>
+        <v>0.6744012242428556</v>
       </c>
       <c r="BK34" t="n">
-        <v>0.669393826701376</v>
+        <v>1.152844923763481</v>
       </c>
       <c r="BL34" t="n">
-        <v>0.5102485826428259</v>
+        <v>0.1221107719145225</v>
       </c>
       <c r="BM34" t="n">
-        <v>0.6934812760055479</v>
+        <v>0.1618122977346279</v>
       </c>
       <c r="BN34" t="n">
         <v>0</v>
       </c>
       <c r="BO34" t="n">
-        <v>0</v>
+        <v>1.30647795318454</v>
       </c>
       <c r="BP34" t="n">
         <v>0</v>
@@ -8505,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="BS34" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="BT34" t="n">
         <v>0</v>
@@ -8519,47 +8513,47 @@
         <v>3765</v>
       </c>
       <c r="BW34" t="n">
-        <v>1261</v>
+        <v>820</v>
       </c>
       <c r="BX34" t="n">
-        <v>0.3349269588313413</v>
+        <v>0.2177954847277556</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Simplicispira</t>
+          <t>Silanimonas</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C35" t="n">
-        <v>1.529513140887549</v>
+        <v>0.1077121930202499</v>
       </c>
       <c r="D35" t="n">
-        <v>0.910643141718839</v>
+        <v>0.1517738569531398</v>
       </c>
       <c r="E35" t="n">
-        <v>1.05573287503069</v>
+        <v>0.1473115639577707</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9277827974524538</v>
+        <v>0.07933534610044736</v>
       </c>
       <c r="G35" t="n">
-        <v>1.362046751334438</v>
+        <v>0.1049144119271121</v>
       </c>
       <c r="H35" t="n">
-        <v>2.71</v>
+        <v>1.49</v>
       </c>
       <c r="I35" t="n">
-        <v>9.959985449254274</v>
+        <v>0.08002910149145144</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.607717041800643</v>
+        <v>0.1786352268667381</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -8586,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.252422297722411</v>
+        <v>0.2139172014596703</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -8607,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.4829806807727691</v>
+        <v>0.4484820607175713</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -8616,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.3756309425988966</v>
+        <v>6.244864420706656</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -8625,13 +8619,13 @@
         <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.02899391127863149</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.4148557882259977</v>
+        <v>2.755827736072698</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.6500541711809318</v>
+        <v>3.737811484290358</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
@@ -8640,10 +8634,10 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.6135522872868356</v>
+        <v>3.973051821107402</v>
       </c>
       <c r="AM35" t="n">
-        <v>2.521364733511645</v>
+        <v>2.175614847674343</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -8655,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.1538057545860375</v>
+        <v>0</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -8664,13 +8658,13 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.08622547962923044</v>
+        <v>0</v>
       </c>
       <c r="AW35" t="n">
         <v>0</v>
@@ -8694,46 +8688,46 @@
         <v>0</v>
       </c>
       <c r="BD35" t="n">
-        <v>0.001908396946564886</v>
+        <v>0</v>
       </c>
       <c r="BE35" t="n">
         <v>0</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.04203517503446884</v>
+        <v>0</v>
       </c>
       <c r="BG35" t="n">
         <v>0</v>
       </c>
       <c r="BH35" t="n">
-        <v>0.5571565802113353</v>
+        <v>0.7108549471661864</v>
       </c>
       <c r="BI35" t="n">
-        <v>0.553550783029114</v>
+        <v>0.7357320533931262</v>
       </c>
       <c r="BJ35" t="n">
         <v>0</v>
       </c>
       <c r="BK35" t="n">
-        <v>0.05578281889178133</v>
+        <v>0.669393826701376</v>
       </c>
       <c r="BL35" t="n">
-        <v>0.5800261665939817</v>
+        <v>0.5102485826428259</v>
       </c>
       <c r="BM35" t="n">
-        <v>0.53166897827092</v>
+        <v>0.6934812760055479</v>
       </c>
       <c r="BN35" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="BO35" t="n">
         <v>0</v>
       </c>
       <c r="BP35" t="n">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="BQ35" t="n">
-        <v>0.004885675200312683</v>
+        <v>0</v>
       </c>
       <c r="BR35" t="n">
         <v>0</v>
@@ -8753,47 +8747,47 @@
         <v>3765</v>
       </c>
       <c r="BW35" t="n">
-        <v>1030</v>
+        <v>1261</v>
       </c>
       <c r="BX35" t="n">
-        <v>0.2735723771580345</v>
+        <v>0.3349269588313413</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Smithella</t>
+          <t>Simplicispira</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C36" t="n">
-        <v>3.446790176647997</v>
+        <v>1.529513140887549</v>
       </c>
       <c r="D36" t="n">
-        <v>5.995067349649022</v>
+        <v>0.910643141718839</v>
       </c>
       <c r="E36" t="n">
-        <v>2.430640805303216</v>
+        <v>1.05573287503069</v>
       </c>
       <c r="F36" t="n">
-        <v>2.11120171011746</v>
+        <v>0.9277827974524538</v>
       </c>
       <c r="G36" t="n">
-        <v>3.313086692435119</v>
+        <v>1.362046751334438</v>
       </c>
       <c r="H36" t="n">
-        <v>13.49</v>
+        <v>2.71</v>
       </c>
       <c r="I36" t="n">
-        <v>47.39662907724021</v>
+        <v>9.959985449254274</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>4.510539478385137</v>
+        <v>1.607717041800643</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -8820,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2.277589027305902</v>
+        <v>2.252422297722411</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -8829,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02056555269922879</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -8841,16 +8835,16 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.5634774609015639</v>
+        <v>0.4829806807727691</v>
       </c>
       <c r="AB36" t="n">
-        <v>11.21770341241984</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.2112924052118793</v>
+        <v>0.3756309425988966</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -8859,25 +8853,25 @@
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>0.02899391127863149</v>
       </c>
       <c r="AH36" t="n">
-        <v>3.289213749506124</v>
+        <v>0.4148557882259977</v>
       </c>
       <c r="AI36" t="n">
-        <v>20.85590465872156</v>
+        <v>0.6500541711809318</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.2677473044359215</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>6.740052332400974</v>
+        <v>0.6135522872868356</v>
       </c>
       <c r="AM36" t="n">
-        <v>40.81968817274447</v>
+        <v>2.521364733511645</v>
       </c>
       <c r="AN36" t="n">
         <v>0</v>
@@ -8889,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>0.1538057545860375</v>
       </c>
       <c r="AR36" t="n">
         <v>0</v>
@@ -8898,13 +8892,13 @@
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>0</v>
+        <v>0.08622547962923044</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
@@ -8922,52 +8916,52 @@
         <v>0</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.0007963178263708611</v>
+        <v>0</v>
       </c>
       <c r="BC36" t="n">
         <v>0</v>
       </c>
       <c r="BD36" t="n">
-        <v>0</v>
+        <v>0.001908396946564886</v>
       </c>
       <c r="BE36" t="n">
         <v>0</v>
       </c>
       <c r="BF36" t="n">
-        <v>0.3556175807916064</v>
+        <v>0.04203517503446884</v>
       </c>
       <c r="BG36" t="n">
         <v>0</v>
       </c>
       <c r="BH36" t="n">
-        <v>0.09606147934678194</v>
+        <v>0.5571565802113353</v>
       </c>
       <c r="BI36" t="n">
-        <v>0.03853834565392565</v>
+        <v>0.553550783029114</v>
       </c>
       <c r="BJ36" t="n">
         <v>0</v>
       </c>
       <c r="BK36" t="n">
-        <v>0.167348456675344</v>
+        <v>0.05578281889178133</v>
       </c>
       <c r="BL36" t="n">
-        <v>0.09594417793283908</v>
+        <v>0.5800261665939817</v>
       </c>
       <c r="BM36" t="n">
-        <v>0.1386962552011096</v>
+        <v>0.53166897827092</v>
       </c>
       <c r="BN36" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BO36" t="n">
         <v>0</v>
       </c>
       <c r="BP36" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="BQ36" t="n">
-        <v>0</v>
+        <v>0.004885675200312683</v>
       </c>
       <c r="BR36" t="n">
         <v>0</v>
@@ -8987,176 +8981,176 @@
         <v>3765</v>
       </c>
       <c r="BW36" t="n">
-        <v>1555</v>
+        <v>1030</v>
       </c>
       <c r="BX36" t="n">
-        <v>0.4130146082337318</v>
+        <v>0.2735723771580345</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sphingobium</t>
+          <t>Smithella</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3.446790176647997</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>5.995067349649022</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03682789098944267</v>
+        <v>2.430640805303216</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01101879806950658</v>
+        <v>2.11120171011746</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02760905577029266</v>
+        <v>3.313086692435119</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>13.49</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01940099430095792</v>
+        <v>47.39662907724021</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03274979159223532</v>
+        <v>4.510539478385137</v>
       </c>
       <c r="L37" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.534919416730621</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.243622844159868</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.032155617308456</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.3359650596337981</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4955258346964302</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.353398153124542</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3176283748014823</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1006669183339625</v>
+        <v>2.277589027305902</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4293721458706136</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6501011268419532</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0403401226023334</v>
+        <v>0.02056555269922879</v>
       </c>
       <c r="X37" t="n">
-        <v>1.045225105797175</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.801778814609609</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.004966229638458482</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.06037258509659614</v>
+        <v>0.5634774609015639</v>
       </c>
       <c r="AB37" t="n">
-        <v>11.84977963104695</v>
+        <v>11.21770341241984</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.08999491333098564</v>
+        <v>0.2112924052118793</v>
       </c>
       <c r="AE37" t="n">
-        <v>9.134523124160431</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>3.052990226844795</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.009877518767285657</v>
+        <v>3.289213749506124</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.02708559046587215</v>
+        <v>20.85590465872156</v>
       </c>
       <c r="AJ37" t="n">
         <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.1374918590346624</v>
+        <v>0.2677473044359215</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.03308370176546663</v>
+        <v>6.740052332400974</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.01630895687911801</v>
+        <v>40.81968817274447</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.1477832512315271</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.1778778088358079</v>
+        <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.4449152542372882</v>
+        <v>0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.007502719735904265</v>
+        <v>0</v>
       </c>
       <c r="AR37" t="n">
-        <v>2.372952540949181</v>
+        <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.493102089081592</v>
+        <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.08191420564776893</v>
+        <v>0</v>
       </c>
       <c r="AW37" t="n">
-        <v>1.519430412473649</v>
+        <v>0</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.1826355717898286</v>
+        <v>0</v>
       </c>
       <c r="AY37" t="n">
         <v>0</v>
       </c>
       <c r="AZ37" t="n">
-        <v>71.42363958054632</v>
+        <v>0</v>
       </c>
       <c r="BA37" t="n">
-        <v>0.001818777054308683</v>
+        <v>0</v>
       </c>
       <c r="BB37" t="n">
-        <v>0.04857538740862253</v>
+        <v>0.0007963178263708611</v>
       </c>
       <c r="BC37" t="n">
         <v>0</v>
@@ -9168,43 +9162,43 @@
         <v>0</v>
       </c>
       <c r="BF37" t="n">
-        <v>0.1084507515889296</v>
+        <v>0.3556175807916064</v>
       </c>
       <c r="BG37" t="n">
-        <v>27.01619121048574</v>
+        <v>0</v>
       </c>
       <c r="BH37" t="n">
-        <v>0.2305475504322767</v>
+        <v>0.09606147934678194</v>
       </c>
       <c r="BI37" t="n">
-        <v>0.1856847563325509</v>
+        <v>0.03853834565392565</v>
       </c>
       <c r="BJ37" t="n">
-        <v>1.943129648741948</v>
+        <v>0</v>
       </c>
       <c r="BK37" t="n">
-        <v>0.1487541837114169</v>
+        <v>0.167348456675344</v>
       </c>
       <c r="BL37" t="n">
-        <v>0.02180549498473616</v>
+        <v>0.09594417793283908</v>
       </c>
       <c r="BM37" t="n">
-        <v>0.06934812760055478</v>
+        <v>0.1386962552011096</v>
       </c>
       <c r="BN37" t="n">
         <v>0</v>
       </c>
       <c r="BO37" t="n">
-        <v>3.320631464344039</v>
+        <v>0</v>
       </c>
       <c r="BP37" t="n">
         <v>0</v>
       </c>
       <c r="BQ37" t="n">
-        <v>0.009771350400625366</v>
+        <v>0</v>
       </c>
       <c r="BR37" t="n">
-        <v>12.29555920182078</v>
+        <v>0</v>
       </c>
       <c r="BS37" t="n">
         <v>0</v>
@@ -9221,224 +9215,224 @@
         <v>3765</v>
       </c>
       <c r="BW37" t="n">
-        <v>1360</v>
+        <v>1555</v>
       </c>
       <c r="BX37" t="n">
-        <v>0.3612217795484728</v>
+        <v>0.4130146082337318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sphingomonas</t>
+          <t>Sphingobium</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2800517018526497</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>3.225194460254222</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.878222440461576</v>
+        <v>0.03682789098944267</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2622473940542566</v>
+        <v>0.01101879806950658</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5282532670715995</v>
+        <v>0.02760905577029266</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3516430217048624</v>
+        <v>0.01940099430095792</v>
       </c>
       <c r="J38" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.6133142789091341</v>
+        <v>0.03274979159223532</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.534919416730621</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01807291128782402</v>
+        <v>2.243622844159868</v>
       </c>
       <c r="O38" t="n">
-        <v>0.1389440254069075</v>
+        <v>1.032155617308456</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.3359650596337981</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.00962186086789185</v>
+        <v>0.4955258346964302</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01954365564078761</v>
+        <v>1.353398153124542</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>0.3176283748014823</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3900843085441047</v>
+        <v>0.1006669183339625</v>
       </c>
       <c r="U38" t="n">
-        <v>17.13673015482029</v>
+        <v>0.4293721458706136</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1444669170759896</v>
+        <v>0.6501011268419532</v>
       </c>
       <c r="W38" t="n">
-        <v>0.008700810757366027</v>
+        <v>0.0403401226023334</v>
       </c>
       <c r="X38" t="n">
-        <v>0.2498342935807882</v>
+        <v>1.045225105797175</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.007290223809870963</v>
+        <v>6.801778814609609</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.1121205151793928</v>
+        <v>0.06037258509659614</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.1002876672560766</v>
+        <v>11.84977963104695</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.1839026489807098</v>
+        <v>0.08999491333098564</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.05757052389176742</v>
+        <v>9.134523124160431</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.03586478974267013</v>
+        <v>3.052990226844795</v>
       </c>
       <c r="AG38" t="n">
-        <v>8.408234270803131</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.2864480442512841</v>
+        <v>0.009877518767285657</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.2708559046587216</v>
+        <v>0.02708559046587215</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.1953831681018887</v>
+        <v>0.1374918590346624</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.5353544467502782</v>
+        <v>0.03308370176546663</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.2674668928175354</v>
+        <v>0.01630895687911801</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.01070893124866138</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.007260318727992159</v>
+        <v>0.1778778088358079</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.03177966101694915</v>
+        <v>0.4449152542372882</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.03001087894361706</v>
+        <v>0.007502719735904265</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.02099958000839983</v>
+        <v>2.372952540949181</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.03941663381947182</v>
+        <v>2.493102089081592</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.001347581764523563</v>
+        <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.09484802759215348</v>
+        <v>0.08191420564776893</v>
       </c>
       <c r="AW38" t="n">
-        <v>0.1173382124816038</v>
+        <v>1.519430412473649</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.02809778027535825</v>
+        <v>0.1826355717898286</v>
       </c>
       <c r="AY38" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>25.49087299874854</v>
+        <v>71.42363958054632</v>
       </c>
       <c r="BA38" t="n">
-        <v>0.003637554108617366</v>
+        <v>0.001818777054308683</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.09595629807768877</v>
+        <v>0.04857538740862253</v>
       </c>
       <c r="BC38" t="n">
-        <v>0.4965243296921549</v>
+        <v>0</v>
       </c>
       <c r="BD38" t="n">
-        <v>0.6908396946564885</v>
+        <v>0</v>
       </c>
       <c r="BE38" t="n">
-        <v>0.401270107121672</v>
+        <v>0</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.3682281333019471</v>
+        <v>0.1084507515889296</v>
       </c>
       <c r="BG38" t="n">
-        <v>0.2467232074016962</v>
+        <v>27.01619121048574</v>
       </c>
       <c r="BH38" t="n">
-        <v>0.1536983669548511</v>
+        <v>0.2305475504322767</v>
       </c>
       <c r="BI38" t="n">
         <v>0.1856847563325509</v>
       </c>
       <c r="BJ38" t="n">
-        <v>0.02135307306309833</v>
+        <v>1.943129648741948</v>
       </c>
       <c r="BK38" t="n">
-        <v>0.4648568240981777</v>
+        <v>0.1487541837114169</v>
       </c>
       <c r="BL38" t="n">
-        <v>0.1177496729175752</v>
+        <v>0.02180549498473616</v>
       </c>
       <c r="BM38" t="n">
-        <v>0.2080443828016643</v>
+        <v>0.06934812760055478</v>
       </c>
       <c r="BN38" t="n">
         <v>0</v>
       </c>
       <c r="BO38" t="n">
-        <v>0.05443658138268917</v>
+        <v>3.320631464344039</v>
       </c>
       <c r="BP38" t="n">
         <v>0</v>
       </c>
       <c r="BQ38" t="n">
-        <v>0.08794215360562829</v>
+        <v>0.009771350400625366</v>
       </c>
       <c r="BR38" t="n">
-        <v>0.01058593129730588</v>
+        <v>12.29555920182078</v>
       </c>
       <c r="BS38" t="n">
         <v>0</v>
@@ -9455,209 +9449,209 @@
         <v>3765</v>
       </c>
       <c r="BW38" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="BX38" t="n">
-        <v>0.3930942895086321</v>
+        <v>0.3612217795484728</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sphingopyxis</t>
+          <t>Sphingomonas</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5385609651012494</v>
+        <v>0.2800517018526497</v>
       </c>
       <c r="D39" t="n">
-        <v>0.398406374501992</v>
+        <v>3.225194460254222</v>
       </c>
       <c r="E39" t="n">
-        <v>6.174809722563221</v>
+        <v>1.878222440461576</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4407519227802632</v>
+        <v>0.2622473940542566</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6626173384870238</v>
+        <v>0.5282532670715995</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6232569419182733</v>
+        <v>0.3516430217048624</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8395855662736691</v>
+        <v>0.6133142789091341</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03614582257564804</v>
+        <v>0.01807291128782402</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>0.1389440254069075</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.00962186086789185</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.01954365564078761</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.5914181452120297</v>
+        <v>0.3900843085441047</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0007244749367895617</v>
+        <v>17.13673015482029</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>0.1444669170759896</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006327862368993474</v>
+        <v>0.008700810757366027</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>0.2498342935807882</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.002430074603290321</v>
+        <v>0.007290223809870963</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.004966229638458482</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.791053357865686</v>
+        <v>0.1121205151793928</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.04618510992056161</v>
+        <v>0.1002876672560766</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>1.819462378213405</v>
+        <v>0.1839026489807098</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.09595087315294569</v>
+        <v>0.05757052389176742</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.07621267820317404</v>
+        <v>0.03586478974267013</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>8.408234270803131</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.02963255630185697</v>
+        <v>0.2864480442512841</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.08125677139761647</v>
+        <v>0.2708559046587216</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.003618206816701643</v>
+        <v>0.1953831681018887</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.03609131101687268</v>
+        <v>0.5353544467502782</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.02609433100658882</v>
+        <v>0.2674668928175354</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>0.01070893124866138</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>0.007260318727992159</v>
       </c>
       <c r="AP39" t="n">
-        <v>0</v>
+        <v>0.03177966101694915</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.05251903815132986</v>
+        <v>0.03001087894361706</v>
       </c>
       <c r="AR39" t="n">
         <v>0.02099958000839983</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>0.03941663381947182</v>
       </c>
       <c r="AT39" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AU39" t="n">
-        <v>0</v>
+        <v>0.001347581764523563</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.1034705755550765</v>
+        <v>0.09484802759215348</v>
       </c>
       <c r="AW39" t="n">
-        <v>0.02585418241120083</v>
+        <v>0.1173382124816038</v>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>0.02809778027535825</v>
       </c>
       <c r="AY39" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0</v>
+        <v>25.49087299874854</v>
       </c>
       <c r="BA39" t="n">
-        <v>0</v>
+        <v>0.003637554108617366</v>
       </c>
       <c r="BB39" t="n">
-        <v>23.5025243275096</v>
+        <v>0.09595629807768877</v>
       </c>
       <c r="BC39" t="n">
-        <v>0</v>
+        <v>0.4965243296921549</v>
       </c>
       <c r="BD39" t="n">
-        <v>0</v>
+        <v>0.6908396946564885</v>
       </c>
       <c r="BE39" t="n">
-        <v>0.01046791583795666</v>
+        <v>0.401270107121672</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.1008844200827252</v>
+        <v>0.3682281333019471</v>
       </c>
       <c r="BG39" t="n">
-        <v>0.8481110254433308</v>
+        <v>0.2467232074016962</v>
       </c>
       <c r="BH39" t="n">
-        <v>2.478386167146974</v>
+        <v>0.1536983669548511</v>
       </c>
       <c r="BI39" t="n">
-        <v>2.371860000700697</v>
+        <v>0.1856847563325509</v>
       </c>
       <c r="BJ39" t="n">
-        <v>0.03558845510516388</v>
+        <v>0.02135307306309833</v>
       </c>
       <c r="BK39" t="n">
-        <v>17.94347341018966</v>
+        <v>0.4648568240981777</v>
       </c>
       <c r="BL39" t="n">
-        <v>1.330135194068905</v>
+        <v>0.1177496729175752</v>
       </c>
       <c r="BM39" t="n">
-        <v>1.895515487748498</v>
+        <v>0.2080443828016643</v>
       </c>
       <c r="BN39" t="n">
         <v>0</v>
@@ -9669,10 +9663,10 @@
         <v>0</v>
       </c>
       <c r="BQ39" t="n">
-        <v>0.01954270080125073</v>
+        <v>0.08794215360562829</v>
       </c>
       <c r="BR39" t="n">
-        <v>0.04234372518922352</v>
+        <v>0.01058593129730588</v>
       </c>
       <c r="BS39" t="n">
         <v>0</v>
@@ -9689,119 +9683,119 @@
         <v>3765</v>
       </c>
       <c r="BW39" t="n">
-        <v>1299</v>
+        <v>1480</v>
       </c>
       <c r="BX39" t="n">
-        <v>0.3450199203187251</v>
+        <v>0.3930942895086321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Syntrophus</t>
+          <t>Sphingopyxis</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>705</v>
+        <v>676</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.5385609651012494</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6.174809722563221</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.4407519227802632</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.6626173384870238</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.6232569419182733</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.8395855662736691</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>3.453568687643899</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.47857069090158</v>
+        <v>0.03614582257564804</v>
       </c>
       <c r="O40" t="n">
-        <v>0.5160778086542279</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.3023685536704183</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3463869912441066</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4470611227830166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>10.21704605611435</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.5914181452120297</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.0007244749367895617</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>0.006327862368993474</v>
       </c>
       <c r="X40" t="n">
-        <v>0.3849487584765207</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.748365774829287</v>
+        <v>0.002430074603290321</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.01149954001839926</v>
+        <v>1.791053357865686</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>0.04618510992056161</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.01565128927495402</v>
+        <v>1.819462378213405</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.2302820955670697</v>
+        <v>0.09595087315294569</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.4572760692190442</v>
+        <v>0.07621267820317404</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.01975503753457131</v>
+        <v>0.02963255630185697</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.02708559046587215</v>
+        <v>0.08125677139761647</v>
       </c>
       <c r="AJ40" t="n">
         <v>0</v>
@@ -9810,10 +9804,10 @@
         <v>0.003618206816701643</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.0210532647598424</v>
+        <v>0.03609131101687268</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.03587970513405963</v>
+        <v>0.02609433100658882</v>
       </c>
       <c r="AN40" t="n">
         <v>0</v>
@@ -9825,10 +9819,10 @@
         <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>0.05251903815132986</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.3359932801343973</v>
+        <v>0.02099958000839983</v>
       </c>
       <c r="AS40" t="n">
         <v>0</v>
@@ -9840,10 +9834,10 @@
         <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.008622547962923045</v>
+        <v>0.1034705755550765</v>
       </c>
       <c r="AW40" t="n">
-        <v>0.1809792768784058</v>
+        <v>0.02585418241120083</v>
       </c>
       <c r="AX40" t="n">
         <v>0</v>
@@ -9858,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="BB40" t="n">
-        <v>0</v>
+        <v>23.5025243275096</v>
       </c>
       <c r="BC40" t="n">
         <v>0</v>
@@ -9867,46 +9861,46 @@
         <v>0</v>
       </c>
       <c r="BE40" t="n">
-        <v>0</v>
+        <v>0.01046791583795666</v>
       </c>
       <c r="BF40" t="n">
-        <v>0.001681407001378754</v>
+        <v>0.1008844200827252</v>
       </c>
       <c r="BG40" t="n">
-        <v>0.4934464148033924</v>
+        <v>0.8481110254433308</v>
       </c>
       <c r="BH40" t="n">
-        <v>0</v>
+        <v>2.478386167146974</v>
       </c>
       <c r="BI40" t="n">
-        <v>0.01401394387415478</v>
+        <v>2.371860000700697</v>
       </c>
       <c r="BJ40" t="n">
-        <v>0.1387949749101391</v>
+        <v>0.03558845510516388</v>
       </c>
       <c r="BK40" t="n">
-        <v>0.01859427296392711</v>
+        <v>17.94347341018966</v>
       </c>
       <c r="BL40" t="n">
-        <v>0.008722197993894461</v>
+        <v>1.330135194068905</v>
       </c>
       <c r="BM40" t="n">
-        <v>0</v>
+        <v>1.895515487748498</v>
       </c>
       <c r="BN40" t="n">
         <v>0</v>
       </c>
       <c r="BO40" t="n">
-        <v>1.633097441480675</v>
+        <v>0.05443658138268917</v>
       </c>
       <c r="BP40" t="n">
         <v>0</v>
       </c>
       <c r="BQ40" t="n">
-        <v>0</v>
+        <v>0.01954270080125073</v>
       </c>
       <c r="BR40" t="n">
-        <v>0</v>
+        <v>0.04234372518922352</v>
       </c>
       <c r="BS40" t="n">
         <v>0</v>
@@ -9923,20 +9917,20 @@
         <v>3765</v>
       </c>
       <c r="BW40" t="n">
-        <v>1028</v>
+        <v>1299</v>
       </c>
       <c r="BX40" t="n">
-        <v>0.2730411686586985</v>
+        <v>0.3450199203187251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Tessaracoccus</t>
+          <t>Syntrophus</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -9948,16 +9942,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002203759613901316</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00184060371801951</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00242512428761974</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -9969,28 +9963,28 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3.453568687643899</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0335639781059589</v>
+        <v>2.47857069090158</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.5160778086542279</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.3023685536704183</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.3463869912441066</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.4470611227830166</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>10.21704605611435</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01258336479174531</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -9999,55 +9993,55 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>11.12438204469053</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>0.3849487584765207</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.748365774829287</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.6803734604688121</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0.01149954001839926</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.009237021984112323</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>0.01565128927495402</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>0.2302820955670697</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.004483098717833767</v>
+        <v>0.4572760692190442</v>
       </c>
       <c r="AG41" t="n">
         <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>0.01975503753457131</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>0.02708559046587215</v>
       </c>
       <c r="AJ41" t="n">
         <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>0.003618206816701643</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>0.0210532647598424</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>0.03587970513405963</v>
       </c>
       <c r="AN41" t="n">
         <v>0</v>
@@ -10059,10 +10053,10 @@
         <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.003751359867952133</v>
+        <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>0.3359932801343973</v>
       </c>
       <c r="AS41" t="n">
         <v>0</v>
@@ -10071,19 +10065,19 @@
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.002695163529047125</v>
+        <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>7.518861823668894</v>
+        <v>0.008622547962923045</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.01193269957440038</v>
+        <v>0.1809792768784058</v>
       </c>
       <c r="AX41" t="n">
         <v>0</v>
       </c>
       <c r="AY41" t="n">
-        <v>26.17</v>
+        <v>0</v>
       </c>
       <c r="AZ41" t="n">
         <v>0</v>
@@ -10092,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="BB41" t="n">
-        <v>0.003583430218668875</v>
+        <v>0</v>
       </c>
       <c r="BC41" t="n">
         <v>0</v>
@@ -10104,34 +10098,34 @@
         <v>0</v>
       </c>
       <c r="BF41" t="n">
-        <v>0</v>
+        <v>0.001681407001378754</v>
       </c>
       <c r="BG41" t="n">
-        <v>0.06168080185042405</v>
+        <v>0.4934464148033924</v>
       </c>
       <c r="BH41" t="n">
-        <v>0.01921229586935639</v>
+        <v>0</v>
       </c>
       <c r="BI41" t="n">
-        <v>0.007006971937077392</v>
+        <v>0.01401394387415478</v>
       </c>
       <c r="BJ41" t="n">
-        <v>0.01601480479732375</v>
+        <v>0.1387949749101391</v>
       </c>
       <c r="BK41" t="n">
         <v>0.01859427296392711</v>
       </c>
       <c r="BL41" t="n">
-        <v>0.02616659398168339</v>
+        <v>0.008722197993894461</v>
       </c>
       <c r="BM41" t="n">
-        <v>0.02311604253351826</v>
+        <v>0</v>
       </c>
       <c r="BN41" t="n">
-        <v>48.76</v>
+        <v>0</v>
       </c>
       <c r="BO41" t="n">
-        <v>0</v>
+        <v>1.633097441480675</v>
       </c>
       <c r="BP41" t="n">
         <v>0</v>
@@ -10157,20 +10151,20 @@
         <v>3765</v>
       </c>
       <c r="BW41" t="n">
-        <v>501</v>
+        <v>1028</v>
       </c>
       <c r="BX41" t="n">
-        <v>0.1330677290836653</v>
+        <v>0.2730411686586985</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Thermincola</t>
+          <t>Tessaracoccus</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -10182,19 +10176,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.002203759613901316</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.00184060371801951</v>
       </c>
       <c r="H42" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.00242512428761974</v>
       </c>
       <c r="J42" t="n">
-        <v>28.73</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -10206,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>0.0335639781059589</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -10224,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.01258336479174531</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -10233,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>11.12438204469053</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -10242,13 +10236,13 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>0.6803734604688121</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>0.01149954001839926</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>0.009237021984112323</v>
       </c>
       <c r="AC42" t="n">
         <v>0</v>
@@ -10260,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>0.004483098717833767</v>
       </c>
       <c r="AG42" t="n">
         <v>0</v>
@@ -10278,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.003007609251406057</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="n">
         <v>0</v>
@@ -10293,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0</v>
+        <v>0.003751359867952133</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -10305,19 +10299,19 @@
         <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>0</v>
+        <v>0.002695163529047125</v>
       </c>
       <c r="AV42" t="n">
-        <v>0</v>
+        <v>7.518861823668894</v>
       </c>
       <c r="AW42" t="n">
-        <v>0</v>
+        <v>0.01193269957440038</v>
       </c>
       <c r="AX42" t="n">
         <v>0</v>
       </c>
       <c r="AY42" t="n">
-        <v>0</v>
+        <v>26.17</v>
       </c>
       <c r="AZ42" t="n">
         <v>0</v>
@@ -10326,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="BB42" t="n">
-        <v>0</v>
+        <v>0.003583430218668875</v>
       </c>
       <c r="BC42" t="n">
         <v>0</v>
@@ -10341,28 +10335,28 @@
         <v>0</v>
       </c>
       <c r="BG42" t="n">
-        <v>0</v>
+        <v>0.06168080185042405</v>
       </c>
       <c r="BH42" t="n">
-        <v>0</v>
+        <v>0.01921229586935639</v>
       </c>
       <c r="BI42" t="n">
-        <v>0</v>
+        <v>0.007006971937077392</v>
       </c>
       <c r="BJ42" t="n">
-        <v>0</v>
+        <v>0.01601480479732375</v>
       </c>
       <c r="BK42" t="n">
-        <v>0</v>
+        <v>0.01859427296392711</v>
       </c>
       <c r="BL42" t="n">
-        <v>0</v>
+        <v>0.02616659398168339</v>
       </c>
       <c r="BM42" t="n">
-        <v>0</v>
+        <v>0.02311604253351826</v>
       </c>
       <c r="BN42" t="n">
-        <v>0</v>
+        <v>48.76</v>
       </c>
       <c r="BO42" t="n">
         <v>0</v>
@@ -10377,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="BS42" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BT42" t="n">
         <v>0</v>
@@ -10391,20 +10385,20 @@
         <v>3765</v>
       </c>
       <c r="BW42" t="n">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="BX42" t="n">
-        <v>0.1418326693227092</v>
+        <v>0.1330677290836653</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Treponema</t>
+          <t>Thermincola</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -10422,13 +10416,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>28.73</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -10437,25 +10431,25 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>21.84701969813251</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>16.96530001032738</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.533148074632791</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.9910969259197042</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.193110747618589</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.823276493868178</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>3.811540497617787</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -10470,10 +10464,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.7189109264263499</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.467765060387354</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -10491,10 +10485,10 @@
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.017079255421224</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>6.5587734241908</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
         <v>0</v>
@@ -10512,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>0.003007609251406057</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.002141786249732277</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
         <v>0</v>
@@ -10530,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.9029819403611928</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
@@ -10545,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>1.24100075573764</v>
+        <v>0</v>
       </c>
       <c r="AX43" t="n">
         <v>0</v>
@@ -10575,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="BG43" t="n">
-        <v>5.397070161912105</v>
+        <v>0</v>
       </c>
       <c r="BH43" t="n">
         <v>0</v>
@@ -10584,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="BJ43" t="n">
-        <v>0.8754759955870316</v>
+        <v>0</v>
       </c>
       <c r="BK43" t="n">
         <v>0</v>
@@ -10599,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="BO43" t="n">
-        <v>1.088731627653783</v>
+        <v>0</v>
       </c>
       <c r="BP43" t="n">
         <v>0</v>
@@ -10611,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="BS43" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BT43" t="n">
         <v>0</v>
@@ -10625,20 +10619,20 @@
         <v>3765</v>
       </c>
       <c r="BW43" t="n">
-        <v>716</v>
+        <v>534</v>
       </c>
       <c r="BX43" t="n">
-        <v>0.1901726427622842</v>
+        <v>0.1418326693227092</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oxalobacteraceae_unclassified</t>
+          <t>Treponema</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>853</v>
+        <v>731</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -10650,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002203759613901316</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -10665,31 +10659,31 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.005954507562224604</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>21.84701969813251</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.96530001032738</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>3.533148074632791</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.9910969259197042</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.193110747618589</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.823276493868178</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.811540497617787</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -10698,61 +10692,61 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.6934412019647501</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.07988926240854262</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>0.7189109264263499</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.467765060387354</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.02012419503219871</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.1541307028360049</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.05086669014360058</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.017079255421224</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>6.5587734241908</v>
       </c>
       <c r="AG44" t="n">
-        <v>55.34937663090751</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.009877518767285657</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.02708559046587215</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
         <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.02894565453361314</v>
+        <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.01804565550843634</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.008154478439559005</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>0.002141786249732277</v>
       </c>
       <c r="AO44" t="n">
         <v>0</v>
@@ -10761,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.3826387065311175</v>
+        <v>0</v>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>0.9029819403611928</v>
       </c>
       <c r="AS44" t="n">
         <v>0</v>
@@ -10773,13 +10767,13 @@
         <v>0</v>
       </c>
       <c r="AU44" t="n">
-        <v>2.028110555607961</v>
+        <v>0</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.3017891787023065</v>
+        <v>0</v>
       </c>
       <c r="AW44" t="n">
-        <v>0</v>
+        <v>1.24100075573764</v>
       </c>
       <c r="AX44" t="n">
         <v>0</v>
@@ -10797,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="BC44" t="n">
-        <v>1.114421273309059</v>
+        <v>0</v>
       </c>
       <c r="BD44" t="n">
         <v>0</v>
@@ -10809,22 +10803,22 @@
         <v>0</v>
       </c>
       <c r="BG44" t="n">
-        <v>0</v>
+        <v>5.397070161912105</v>
       </c>
       <c r="BH44" t="n">
         <v>0</v>
       </c>
       <c r="BI44" t="n">
-        <v>0.01751742984269348</v>
+        <v>0</v>
       </c>
       <c r="BJ44" t="n">
-        <v>0</v>
+        <v>0.8754759955870316</v>
       </c>
       <c r="BK44" t="n">
         <v>0</v>
       </c>
       <c r="BL44" t="n">
-        <v>0.01308329699084169</v>
+        <v>0</v>
       </c>
       <c r="BM44" t="n">
         <v>0</v>
@@ -10833,10 +10827,10 @@
         <v>0</v>
       </c>
       <c r="BO44" t="n">
-        <v>0</v>
+        <v>1.088731627653783</v>
       </c>
       <c r="BP44" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="BQ44" t="n">
         <v>0</v>
@@ -10855,45 +10849,51 @@
           <t>core</t>
         </is>
       </c>
-      <c r="BV44" t="inlineStr"/>
-      <c r="BW44" t="inlineStr"/>
-      <c r="BX44" t="inlineStr"/>
+      <c r="BV44" t="n">
+        <v>3765</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>716</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>0.1901726427622842</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Variovorax</t>
+          <t>Oxalobacteraceae_unclassified</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C45" t="n">
-        <v>1.658767772511848</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.162777461582242</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8102136017677388</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.536020450889217</v>
+        <v>0.002203759613901316</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8374746916988772</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.050806353825634</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1.083720376324878</v>
+        <v>0.005954507562224604</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.002581844469689146</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -10920,16 +10920,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.661004152510381</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>0.6934412019647501</v>
       </c>
       <c r="W45" t="n">
-        <v>0.004745896776745105</v>
+        <v>0.07988926240854262</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -10938,19 +10938,19 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.02979737783075089</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.3076126954921803</v>
+        <v>0.02012419503219871</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>0.1541307028360049</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.2191180498493563</v>
+        <v>0.05086669014360058</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
@@ -10959,58 +10959,58 @@
         <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>55.34937663090751</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1876728565784275</v>
+        <v>0.009877518767285657</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.9479956663055255</v>
+        <v>0.02708559046587215</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>0.02894565453361314</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.4150500766940359</v>
+        <v>0.01804565550843634</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.8920999412877553</v>
+        <v>0.008154478439559005</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.01070893124866138</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.0181507968199804</v>
+        <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.04060734463276836</v>
+        <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.02625951907566493</v>
+        <v>0.3826387065311175</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.09854158454867955</v>
+        <v>0</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>0</v>
+        <v>2.028110555607961</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.04311273981461522</v>
+        <v>0.3017891787023065</v>
       </c>
       <c r="AW45" t="n">
         <v>0</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.02809778027535825</v>
+        <v>0</v>
       </c>
       <c r="AY45" t="n">
         <v>0</v>
@@ -11019,55 +11019,55 @@
         <v>0</v>
       </c>
       <c r="BA45" t="n">
-        <v>0.0109126623258521</v>
+        <v>0</v>
       </c>
       <c r="BB45" t="n">
         <v>0</v>
       </c>
       <c r="BC45" t="n">
-        <v>0</v>
+        <v>1.114421273309059</v>
       </c>
       <c r="BD45" t="n">
-        <v>2.637404580152672</v>
+        <v>0</v>
       </c>
       <c r="BE45" t="n">
-        <v>0.4972260023029415</v>
+        <v>0</v>
       </c>
       <c r="BF45" t="n">
-        <v>0.147123112620641</v>
+        <v>0</v>
       </c>
       <c r="BG45" t="n">
         <v>0</v>
       </c>
       <c r="BH45" t="n">
-        <v>0.1921229586935639</v>
+        <v>0</v>
       </c>
       <c r="BI45" t="n">
-        <v>0.1716708124583961</v>
+        <v>0.01751742984269348</v>
       </c>
       <c r="BJ45" t="n">
         <v>0</v>
       </c>
       <c r="BK45" t="n">
-        <v>0.1487541837114169</v>
+        <v>0</v>
       </c>
       <c r="BL45" t="n">
-        <v>0.9507195813344962</v>
+        <v>0.01308329699084169</v>
       </c>
       <c r="BM45" t="n">
-        <v>0.6934812760055479</v>
+        <v>0</v>
       </c>
       <c r="BN45" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BO45" t="n">
         <v>0</v>
       </c>
       <c r="BP45" t="n">
-        <v>2.63</v>
+        <v>0.54</v>
       </c>
       <c r="BQ45" t="n">
-        <v>0.1514559312096932</v>
+        <v>0</v>
       </c>
       <c r="BR45" t="n">
         <v>0</v>
@@ -11083,243 +11083,471 @@
           <t>core</t>
         </is>
       </c>
-      <c r="BV45" t="n">
-        <v>3765</v>
-      </c>
-      <c r="BW45" t="n">
-        <v>502</v>
-      </c>
-      <c r="BX45" t="n">
-        <v>0.1333333333333333</v>
-      </c>
+      <c r="BV45" t="inlineStr"/>
+      <c r="BW45" t="inlineStr"/>
+      <c r="BX45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>Variovorax</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>863</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.658767772511848</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.162777461582242</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8102136017677388</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.536020450889217</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8374746916988772</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.050806353825634</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.083720376324878</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.002581844469689146</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.661004152510381</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.004745896776745105</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.02979737783075089</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.3076126954921803</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.2191180498493563</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.1876728565784275</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.9479956663055255</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.4150500766940359</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.8920999412877553</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.01070893124866138</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.0181507968199804</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0.04060734463276836</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.02625951907566493</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.09854158454867955</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.04311273981461522</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0.02809778027535825</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0.0109126623258521</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.637404580152672</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0.4972260023029415</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>0.147123112620641</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>0.1921229586935639</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0.1716708124583961</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>0.1487541837114169</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>0.9507195813344962</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>0.6934812760055479</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>0.1514559312096932</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BV46" t="n">
+        <v>3765</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>502</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>Wchb1-05</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>867</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
         <v>0.1534919416730622</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N47" t="n">
         <v>20.72188371372508</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O47" t="n">
         <v>0.3374354902739182</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P47" t="n">
         <v>0.1343860238535192</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q47" t="n">
         <v>0.1058404695468103</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R47" t="n">
         <v>0.1270337616651195</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S47" t="n">
         <v>0.05293806246691372</v>
       </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
         <v>0.1682557487380819</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Y47" t="n">
         <v>5.781147481227674</v>
       </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
         <v>0.4989445403953176</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AF47" t="n">
         <v>2.259481753788218</v>
       </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
         <v>0.001210053121332026</v>
       </c>
-      <c r="AP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR46" t="n">
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
         <v>0.9659806803863923</v>
       </c>
-      <c r="AS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW46" t="n">
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
         <v>0.5329939143232171</v>
       </c>
-      <c r="AX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG46" t="n">
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG47" t="n">
         <v>0.6476484194294526</v>
       </c>
-      <c r="BH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ46" t="n">
+      <c r="BH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ47" t="n">
         <v>0.6334745008719171</v>
       </c>
-      <c r="BK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO46" t="n">
+      <c r="BK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO47" t="n">
         <v>0.7621121393576483</v>
       </c>
-      <c r="BP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU46" t="inlineStr">
+      <c r="BP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BV46" t="inlineStr"/>
-      <c r="BW46" t="inlineStr"/>
-      <c r="BX46" t="inlineStr"/>
+      <c r="BV47" t="inlineStr"/>
+      <c r="BW47" t="inlineStr"/>
+      <c r="BX47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
